--- a/public/data_mahasiswa/testexcel.xlsx
+++ b/public/data_mahasiswa/testexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oniyusha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester-5\ppl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEBA798-93CD-4B29-B4BD-56EB25BD2EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20F2F1-F5A4-4F93-BC9B-A52F44DFA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EF783F3-A1C7-43EC-ADB5-26384A12F7F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>nama1</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>nama5@undip.com</t>
+  </si>
+  <si>
+    <t>guest</t>
   </si>
 </sst>
 </file>
@@ -432,96 +435,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B77A13E-1FE0-4412-9FEE-360AC2C2BC20}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>24060121123456</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>12345</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24060121123438</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12345</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24060121123420</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12345</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24060121123402</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12345</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24060121123384</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{9A23D6F5-46B4-49CC-B5B8-DF7792BE08C2}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{8E8818C9-CE2A-44B4-89DE-644C51639EDA}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{4DD67E0F-8334-47B2-BB9D-C5DAD95D2DB1}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{04CA1A93-6A8F-4BCC-8D75-E67AD6E69BA7}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{F403EEBC-164C-4671-9816-839D850C60A7}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{9A23D6F5-46B4-49CC-B5B8-DF7792BE08C2}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8E8818C9-CE2A-44B4-89DE-644C51639EDA}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{4DD67E0F-8334-47B2-BB9D-C5DAD95D2DB1}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{04CA1A93-6A8F-4BCC-8D75-E67AD6E69BA7}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{F403EEBC-164C-4671-9816-839D850C60A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
